--- a/data/evaluation/evaluation_North_Winter_Peppers.xlsx
+++ b/data/evaluation/evaluation_North_Winter_Peppers.xlsx
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1526.156666666667</v>
+        <v>1438</v>
       </c>
       <c r="C3" t="n">
-        <v>3822212.934902204</v>
+        <v>3616159.950068871</v>
       </c>
       <c r="D3" t="n">
-        <v>1955.048064601534</v>
+        <v>1901.620348563001</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.3736665883509687</v>
+        <v>-0.2996131262555135</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1488.888265840478</v>
+        <v>1503.668204377714</v>
       </c>
       <c r="C4" t="n">
-        <v>3555007.964349296</v>
+        <v>3560511.322403968</v>
       </c>
       <c r="D4" t="n">
-        <v>1885.47287552733</v>
+        <v>1886.931721712253</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.2776356904022583</v>
+        <v>-0.2796135443868975</v>
       </c>
     </row>
     <row r="5">
